--- a/integrators/tests/ыусешщты.xlsx
+++ b/integrators/tests/ыусешщты.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6451,16 +6450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6750,7 +6749,7 @@
   <dimension ref="A1:U304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="J8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
